--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_predictions_17.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11214,470 +11214,470 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>17</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>5</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>17</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>6</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>17</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>7</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>17</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>8</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>17</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>9</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>17</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>10</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>17</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>11</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>17</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>12</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>17</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>13</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="F267" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G267" s="2" t="b">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="L267" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24578,314 +24578,314 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" t="n">
         <v>38</v>
       </c>
-      <c r="B465" s="2" t="inlineStr">
+      <c r="B465" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C465" s="2" t="inlineStr">
+      <c r="C465" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D465" s="2" t="n">
+      <c r="D465" t="n">
         <v>4</v>
       </c>
-      <c r="E465" s="2" t="inlineStr">
+      <c r="E465" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F465" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G465" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I465" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J465" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K465" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L465" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G465" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I465" t="b">
+        <v>1</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K465" t="b">
+        <v>1</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" t="n">
         <v>38</v>
       </c>
-      <c r="B466" s="2" t="inlineStr">
+      <c r="B466" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C466" s="2" t="inlineStr">
+      <c r="C466" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D466" s="2" t="n">
+      <c r="D466" t="n">
         <v>5</v>
       </c>
-      <c r="E466" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F466" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G466" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I466" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J466" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K466" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L466" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G466" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I466" t="b">
+        <v>1</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K466" t="b">
+        <v>1</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" t="n">
         <v>38</v>
       </c>
-      <c r="B467" s="2" t="inlineStr">
+      <c r="B467" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C467" s="2" t="inlineStr">
+      <c r="C467" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D467" s="2" t="n">
+      <c r="D467" t="n">
         <v>6</v>
       </c>
-      <c r="E467" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F467" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G467" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I467" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J467" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K467" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L467" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G467" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I467" t="b">
+        <v>1</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K467" t="b">
+        <v>1</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>38</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>7</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>38</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>8</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>38</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>9</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_predictions_17.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11214,470 +11214,470 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E208" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="F267" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G267" s="2" t="b">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="L267" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24578,314 +24578,314 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
+      <c r="A465" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B465" t="inlineStr">
+      <c r="B465" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
+      <c r="C465" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E465" t="inlineStr">
+      <c r="E465" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G465" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I465" t="b">
-        <v>1</v>
-      </c>
-      <c r="J465" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K465" t="b">
-        <v>1</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F465" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J465" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K465" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L465" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
+      <c r="A466" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B466" t="inlineStr">
+      <c r="B466" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
+      <c r="C466" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G466" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I466" t="b">
-        <v>1</v>
-      </c>
-      <c r="J466" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K466" t="b">
-        <v>1</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E466" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F466" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G466" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I466" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J466" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K466" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L466" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
+      <c r="A467" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B467" t="inlineStr">
+      <c r="B467" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
+      <c r="C467" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G467" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I467" t="b">
-        <v>1</v>
-      </c>
-      <c r="J467" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K467" t="b">
-        <v>1</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E467" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F467" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J467" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K467" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L467" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E468" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
